--- a/Code/Results/Cases/Case_3_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.326397871581719</v>
+        <v>0.8096947552348297</v>
       </c>
       <c r="C2">
-        <v>0.5334185511231624</v>
+        <v>0.1689056610607338</v>
       </c>
       <c r="D2">
-        <v>0.3874876147227866</v>
+        <v>0.3803482496744834</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6949053083666712</v>
+        <v>0.9510534095220038</v>
       </c>
       <c r="G2">
-        <v>0.3285670332500814</v>
+        <v>0.3826376112167651</v>
       </c>
       <c r="H2">
-        <v>0.243762408427358</v>
+        <v>0.5329323714551606</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4450727395026348</v>
+        <v>0.3464697890742627</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7546426988848367</v>
+        <v>0.9354102844883698</v>
       </c>
       <c r="O2">
-        <v>1.157732128134882</v>
+        <v>1.773290268889582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.024772813147678</v>
+        <v>0.7167389832155493</v>
       </c>
       <c r="C3">
-        <v>0.4698643934762003</v>
+        <v>0.1483254934948945</v>
       </c>
       <c r="D3">
-        <v>0.3445508598234852</v>
+        <v>0.3705370198418336</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6381919465062751</v>
+        <v>0.9450809235930251</v>
       </c>
       <c r="G3">
-        <v>0.2997334254153898</v>
+        <v>0.3797178100942844</v>
       </c>
       <c r="H3">
-        <v>0.2361285514838301</v>
+        <v>0.5355345402302447</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3925353719308617</v>
+        <v>0.3347488705399257</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7466775024717833</v>
+        <v>0.9350643962688565</v>
       </c>
       <c r="O3">
-        <v>1.080246111300397</v>
+        <v>1.772263363456148</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.839616983539372</v>
+        <v>0.6595868745604321</v>
       </c>
       <c r="C4">
-        <v>0.4307724149387866</v>
+        <v>0.1356287670299992</v>
       </c>
       <c r="D4">
-        <v>0.3184974153542015</v>
+        <v>0.364675798423832</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6047233024384226</v>
+        <v>0.942048742712096</v>
       </c>
       <c r="G4">
-        <v>0.2828766181492028</v>
+        <v>0.3782623373390948</v>
       </c>
       <c r="H4">
-        <v>0.2319726958350188</v>
+        <v>0.5374245285424308</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3608128202700982</v>
+        <v>0.3277567447083527</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.742630760331636</v>
+        <v>0.9352330977286698</v>
       </c>
       <c r="O4">
-        <v>1.035567616817119</v>
+        <v>1.772949590126231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.76415556097129</v>
+        <v>0.636279138145909</v>
       </c>
       <c r="C5">
-        <v>0.4148218781404012</v>
+        <v>0.1304399357110242</v>
       </c>
       <c r="D5">
-        <v>0.3079517081247047</v>
+        <v>0.3623284075038384</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5914026178827569</v>
+        <v>0.940972652058683</v>
       </c>
       <c r="G5">
-        <v>0.2762054947364518</v>
+        <v>0.3777538240050191</v>
       </c>
       <c r="H5">
-        <v>0.2304060868024749</v>
+        <v>0.5382681896068959</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3480078270325464</v>
+        <v>0.3249587956166522</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7411863418089624</v>
+        <v>0.9353979254587728</v>
       </c>
       <c r="O5">
-        <v>1.018044050097828</v>
+        <v>1.773559857939617</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.751624157099911</v>
+        <v>0.632407877490067</v>
       </c>
       <c r="C6">
-        <v>0.4121720046470614</v>
+        <v>0.1295774508314196</v>
       </c>
       <c r="D6">
-        <v>0.3062047193795223</v>
+        <v>0.3619411117175702</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5892093070631361</v>
+        <v>0.9408036009450669</v>
       </c>
       <c r="G6">
-        <v>0.2751093075393882</v>
+        <v>0.3776744893776183</v>
       </c>
       <c r="H6">
-        <v>0.2301534300766406</v>
+        <v>0.5384127162741734</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3458885964069935</v>
+        <v>0.3244973014978143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7409586454402017</v>
+        <v>0.9354311056145121</v>
       </c>
       <c r="O6">
-        <v>1.015174255401348</v>
+        <v>1.773681147240623</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.838599345731069</v>
+        <v>0.6592726082486706</v>
       </c>
       <c r="C7">
-        <v>0.430557385866507</v>
+        <v>0.1355588481029599</v>
       </c>
       <c r="D7">
-        <v>0.3183549121567779</v>
+        <v>0.3646439740755341</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6045423958967717</v>
+        <v>0.9420335843294865</v>
       </c>
       <c r="G7">
-        <v>0.2827858658060478</v>
+        <v>0.3782551370760174</v>
       </c>
       <c r="H7">
-        <v>0.2319510626278216</v>
+        <v>0.5374356089682593</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3606396488582106</v>
+        <v>0.3277188025286222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7426104614024496</v>
+        <v>0.9352349312853576</v>
       </c>
       <c r="O7">
-        <v>1.035328579802808</v>
+        <v>1.772956482367832</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.222376200580641</v>
+        <v>0.7776604616412897</v>
       </c>
       <c r="C8">
-        <v>0.5115177408148099</v>
+        <v>0.1618223817689</v>
       </c>
       <c r="D8">
-        <v>0.3726145795742184</v>
+        <v>0.3769316042418041</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6750558108072156</v>
+        <v>0.948862238354053</v>
       </c>
       <c r="G8">
-        <v>0.3184402026600139</v>
+        <v>0.3815607280225208</v>
       </c>
       <c r="H8">
-        <v>0.2410158443010033</v>
+        <v>0.5337689354549582</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4268389546767111</v>
+        <v>0.3423859299081613</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7517164669393708</v>
+        <v>0.9352120787045664</v>
       </c>
       <c r="O8">
-        <v>1.130385316806951</v>
+        <v>1.772662603981075</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.976297681130291</v>
+        <v>1.009151831127951</v>
       </c>
       <c r="C9">
-        <v>0.669873724302505</v>
+        <v>0.2128313067397869</v>
       </c>
       <c r="D9">
-        <v>0.481799702976474</v>
+        <v>0.4023157481129545</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8251423424288191</v>
+        <v>0.9672986458918729</v>
       </c>
       <c r="G9">
-        <v>0.3957902429281575</v>
+        <v>0.3907298397471806</v>
       </c>
       <c r="H9">
-        <v>0.2633271411805111</v>
+        <v>0.528898387985933</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5615089438300913</v>
+        <v>0.3727750064809214</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7766325412740827</v>
+        <v>0.9381809390412741</v>
       </c>
       <c r="O9">
-        <v>1.341962219186257</v>
+        <v>1.782558814709915</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.532555137169254</v>
+        <v>1.178762144603127</v>
       </c>
       <c r="C10">
-        <v>0.7861996619974718</v>
+        <v>0.2499906959071723</v>
       </c>
       <c r="D10">
-        <v>0.5642001988884715</v>
+        <v>0.4217470403735888</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9441981031637141</v>
+        <v>0.9839330980578751</v>
       </c>
       <c r="G10">
-        <v>0.4582009037029025</v>
+        <v>0.3991203841794828</v>
       </c>
       <c r="H10">
-        <v>0.2829561102283549</v>
+        <v>0.5267360843268847</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6643135282228201</v>
+        <v>0.3961016000720292</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7997808000245072</v>
+        <v>0.9421876907292841</v>
       </c>
       <c r="O10">
-        <v>1.515969788942641</v>
+        <v>1.79625221844293</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.786495413226135</v>
+        <v>1.255809325023847</v>
       </c>
       <c r="C11">
-        <v>0.8391724809887933</v>
+        <v>0.26682351804169</v>
       </c>
       <c r="D11">
-        <v>0.6022769862036341</v>
+        <v>0.43075590098303</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.000646618135676</v>
+        <v>0.9921744037128093</v>
       </c>
       <c r="G11">
-        <v>0.4880554576914164</v>
+        <v>0.4033001243330148</v>
       </c>
       <c r="H11">
-        <v>0.2927012113021732</v>
+        <v>0.526060337093142</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7121382053466334</v>
+        <v>0.4069324212280634</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8114914104392028</v>
+        <v>0.9444045929241156</v>
       </c>
       <c r="O11">
-        <v>1.599927459510923</v>
+        <v>1.803884808649229</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.882817551504957</v>
+        <v>1.284968006041481</v>
       </c>
       <c r="C12">
-        <v>0.8592448944262969</v>
+        <v>0.2731870941619832</v>
       </c>
       <c r="D12">
-        <v>0.6167912458303135</v>
+        <v>0.4341915849327904</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.022385329060484</v>
+        <v>0.9953923053529365</v>
       </c>
       <c r="G12">
-        <v>0.49959348565136</v>
+        <v>0.4049353118698917</v>
       </c>
       <c r="H12">
-        <v>0.2965188313727793</v>
+        <v>0.525848753014543</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7304198699423665</v>
+        <v>0.4110654150026249</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8161071030248479</v>
+        <v>0.9453005567784203</v>
       </c>
       <c r="O12">
-        <v>1.632479067746658</v>
+        <v>1.806977481448001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.862065187034148</v>
+        <v>1.278688963605987</v>
       </c>
       <c r="C13">
-        <v>0.854921292904919</v>
+        <v>0.2718170643520068</v>
       </c>
       <c r="D13">
-        <v>0.6136609258038845</v>
+        <v>0.4334505738721361</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.01768680668431</v>
+        <v>0.9946949518623427</v>
       </c>
       <c r="G13">
-        <v>0.4970978407022528</v>
+        <v>0.404580810274183</v>
       </c>
       <c r="H13">
-        <v>0.2956908061849219</v>
+        <v>0.5258923503717909</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7264746351001889</v>
+        <v>0.4101738949028402</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.815104784938768</v>
+        <v>0.9451050867430837</v>
       </c>
       <c r="O13">
-        <v>1.625433613648767</v>
+        <v>1.80630240922099</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.794416487004298</v>
+        <v>1.258208585885541</v>
       </c>
       <c r="C14">
-        <v>0.8408235659338175</v>
+        <v>0.2673472690550227</v>
       </c>
       <c r="D14">
-        <v>0.6034691096057259</v>
+        <v>0.4310380721190938</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.002427600563493</v>
+        <v>0.9924371955878684</v>
       </c>
       <c r="G14">
-        <v>0.4889998999699401</v>
+        <v>0.4034336004683325</v>
       </c>
       <c r="H14">
-        <v>0.2930126764834</v>
+        <v>0.526042041788827</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.7136386957797214</v>
+        <v>0.4072718116264156</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8118674478664758</v>
+        <v>0.9444771738616566</v>
       </c>
       <c r="O14">
-        <v>1.602589886168801</v>
+        <v>1.804135185517339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.753001585777497</v>
+        <v>1.245661445490498</v>
       </c>
       <c r="C15">
-        <v>0.8321901116043477</v>
+        <v>0.2646079913793926</v>
       </c>
       <c r="D15">
-        <v>0.5972390695493743</v>
+        <v>0.4295634954915499</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9931291957249471</v>
+        <v>0.9910669040653062</v>
       </c>
       <c r="G15">
-        <v>0.4840706782610766</v>
+        <v>0.4027377336963553</v>
       </c>
       <c r="H15">
-        <v>0.2913891418347987</v>
+        <v>0.5261395030903628</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.7057992454139281</v>
+        <v>0.405498317905483</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8099084267371808</v>
+        <v>0.9440999069821032</v>
       </c>
       <c r="O15">
-        <v>1.588698355762631</v>
+        <v>1.802834070701635</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.515980216876301</v>
+        <v>1.173724584826175</v>
       </c>
       <c r="C16">
-        <v>0.7827392790164254</v>
+        <v>0.2488891638365942</v>
       </c>
       <c r="D16">
-        <v>0.5617245676712344</v>
+        <v>0.4211616878580173</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9405579515337195</v>
+        <v>0.9834080888155796</v>
       </c>
       <c r="G16">
-        <v>0.4562811593177116</v>
+        <v>0.398854549688167</v>
       </c>
       <c r="H16">
-        <v>0.2823365035424246</v>
+        <v>0.5267864443549684</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6612109860359396</v>
+        <v>0.3953981996842941</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7990401933211189</v>
+        <v>0.9420507249011507</v>
       </c>
       <c r="O16">
-        <v>1.510585289763014</v>
+        <v>1.795781699390233</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.370826459349587</v>
+        <v>1.129564432188943</v>
       </c>
       <c r="C17">
-        <v>0.7524202775321385</v>
+        <v>0.2392276488082814</v>
       </c>
       <c r="D17">
-        <v>0.5400963252273243</v>
+        <v>0.4160507525305945</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9089167684375639</v>
+        <v>0.9788824404136705</v>
       </c>
       <c r="G17">
-        <v>0.439623421152092</v>
+        <v>0.3965654414382698</v>
       </c>
       <c r="H17">
-        <v>0.2769988726634551</v>
+        <v>0.5272622038701371</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.634141870653778</v>
+        <v>0.3892583375188394</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7926830759776919</v>
+        <v>0.9408944295076367</v>
       </c>
       <c r="O17">
-        <v>1.463942124229789</v>
+        <v>1.791815147217733</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.287420146620434</v>
+        <v>1.104154483252444</v>
       </c>
       <c r="C18">
-        <v>0.7349865085224963</v>
+        <v>0.233663926684784</v>
       </c>
       <c r="D18">
-        <v>0.5277114336997499</v>
+        <v>0.4131270375720817</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8909309350495391</v>
+        <v>0.9763428582415941</v>
       </c>
       <c r="G18">
-        <v>0.4301786686900186</v>
+        <v>0.3952829451267803</v>
       </c>
       <c r="H18">
-        <v>0.2740049507249012</v>
+        <v>0.5275648268430757</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6186708065426814</v>
+        <v>0.3857475031531266</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7891370029946358</v>
+        <v>0.9402664765104305</v>
       </c>
       <c r="O18">
-        <v>1.437561707559951</v>
+        <v>1.789665751297747</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.259193413717412</v>
+        <v>1.095549411104571</v>
       </c>
       <c r="C19">
-        <v>0.7290844407482666</v>
+        <v>0.2317790123055374</v>
       </c>
       <c r="D19">
-        <v>0.5235272871437928</v>
+        <v>0.4121398634724187</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8848768958067552</v>
+        <v>0.9754938926277674</v>
       </c>
       <c r="G19">
-        <v>0.4270036006597877</v>
+        <v>0.3948545700078654</v>
       </c>
       <c r="H19">
-        <v>0.2730040430616327</v>
+        <v>0.5276722659345268</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6134489021784475</v>
+        <v>0.3845623406577658</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7879549851309093</v>
+        <v>0.9400602440588699</v>
       </c>
       <c r="O19">
-        <v>1.428704607597808</v>
+        <v>1.788960666777058</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.386269587110803</v>
+        <v>1.134266423386407</v>
       </c>
       <c r="C20">
-        <v>0.7556472448340514</v>
+        <v>0.2402568273377312</v>
       </c>
       <c r="D20">
-        <v>0.5423929142055783</v>
+        <v>0.4165931695885376</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9122627106340104</v>
+        <v>0.9793576353886237</v>
       </c>
       <c r="G20">
-        <v>0.4413823989872299</v>
+        <v>0.3968055860368906</v>
       </c>
       <c r="H20">
-        <v>0.2775591216360596</v>
+        <v>0.5272085590417248</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6370131076901657</v>
+        <v>0.3899097986213462</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7933482986275919</v>
+        <v>0.9410136791817933</v>
       </c>
       <c r="O20">
-        <v>1.468860575140525</v>
+        <v>1.792223721610952</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.814281929902961</v>
+        <v>1.264224655272017</v>
       </c>
       <c r="C21">
-        <v>0.8449640236147218</v>
+        <v>0.2686604485670614</v>
       </c>
       <c r="D21">
-        <v>0.6064600183556195</v>
+        <v>0.4317460260929522</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.006899470103875</v>
+        <v>0.9930977169523203</v>
       </c>
       <c r="G21">
-        <v>0.4913719588366803</v>
+        <v>0.4037691395226517</v>
       </c>
       <c r="H21">
-        <v>0.2937957677662126</v>
+        <v>0.5259968710661127</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7174041064284324</v>
+        <v>0.4081233659708232</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8128133214408138</v>
+        <v>0.9446600761794741</v>
       </c>
       <c r="O21">
-        <v>1.609278483645454</v>
+        <v>1.804766254680203</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.094964663670055</v>
+        <v>1.349057592136603</v>
       </c>
       <c r="C22">
-        <v>0.9034146039304574</v>
+        <v>0.2871615992612249</v>
       </c>
       <c r="D22">
-        <v>0.6488930050816464</v>
+        <v>0.4417904219116053</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.070882675048978</v>
+        <v>1.002643683805218</v>
       </c>
       <c r="G22">
-        <v>0.5254112431035907</v>
+        <v>0.4086258216666039</v>
       </c>
       <c r="H22">
-        <v>0.3051549216714449</v>
+        <v>0.5254632312205558</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7709539776357701</v>
+        <v>0.4202111748538613</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8265965117281269</v>
+        <v>0.9473722679208691</v>
       </c>
       <c r="O22">
-        <v>1.705507120822119</v>
+        <v>1.814143393131133</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.94506076020258</v>
+        <v>1.303790570609522</v>
       </c>
       <c r="C23">
-        <v>0.8722096967570394</v>
+        <v>0.2772930200308679</v>
       </c>
       <c r="D23">
-        <v>0.6261907624462708</v>
+        <v>0.4364166736793607</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.036526718307442</v>
+        <v>0.9974969815312846</v>
       </c>
       <c r="G23">
-        <v>0.5071108502685462</v>
+        <v>0.4060056795967597</v>
       </c>
       <c r="H23">
-        <v>0.2990204086729733</v>
+        <v>0.5257244027945092</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7422742290503237</v>
+        <v>0.4137428166546897</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8191390474616469</v>
+        <v>0.9458946810046029</v>
       </c>
       <c r="O23">
-        <v>1.653716339448323</v>
+        <v>1.809030492122105</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.379287612751398</v>
+        <v>1.132140720595601</v>
       </c>
       <c r="C24">
-        <v>0.7541883425257936</v>
+        <v>0.2397915643156807</v>
       </c>
       <c r="D24">
-        <v>0.5413544729939872</v>
+        <v>0.4163478972560597</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9107493738288497</v>
+        <v>0.9791426057732906</v>
       </c>
       <c r="G24">
-        <v>0.4405867556138077</v>
+        <v>0.3966969121987205</v>
       </c>
       <c r="H24">
-        <v>0.2773056009875887</v>
+        <v>0.5272327212171604</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6357147383918402</v>
+        <v>0.3896152137117355</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7930472136873448</v>
+        <v>0.94095965170483</v>
       </c>
       <c r="O24">
-        <v>1.466635592539888</v>
+        <v>1.792038597024572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.772047148860111</v>
+        <v>0.9466048778025424</v>
       </c>
       <c r="C25">
-        <v>0.6270552672583563</v>
+        <v>0.1990865465273259</v>
       </c>
       <c r="D25">
-        <v>0.4519162190102293</v>
+        <v>0.3953111447165725</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7831180192610958</v>
+        <v>0.9617695726370101</v>
       </c>
       <c r="G25">
-        <v>0.373964977071978</v>
+        <v>0.3879600455585717</v>
       </c>
       <c r="H25">
-        <v>0.2567589375665307</v>
+        <v>0.5299674567558412</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5244680873745864</v>
+        <v>0.3643789630252314</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7690828492978738</v>
+        <v>0.9370563794358873</v>
       </c>
       <c r="O25">
-        <v>1.281710798705035</v>
+        <v>1.778756502801286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_100/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_100/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8096947552348297</v>
+        <v>2.326397871581719</v>
       </c>
       <c r="C2">
-        <v>0.1689056610607338</v>
+        <v>0.533418551123134</v>
       </c>
       <c r="D2">
-        <v>0.3803482496744834</v>
+        <v>0.3874876147227866</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9510534095220038</v>
+        <v>0.694905308366657</v>
       </c>
       <c r="G2">
-        <v>0.3826376112167651</v>
+        <v>0.3285670332500388</v>
       </c>
       <c r="H2">
-        <v>0.5329323714551606</v>
+        <v>0.2437624084272443</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3464697890742627</v>
+        <v>0.4450727395025638</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9354102844883698</v>
+        <v>0.7546426988848935</v>
       </c>
       <c r="O2">
-        <v>1.773290268889582</v>
+        <v>1.157732128134882</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7167389832155493</v>
+        <v>2.024772813147763</v>
       </c>
       <c r="C3">
-        <v>0.1483254934948945</v>
+        <v>0.4698643934764561</v>
       </c>
       <c r="D3">
-        <v>0.3705370198418336</v>
+        <v>0.3445508598233715</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9450809235930251</v>
+        <v>0.6381919465062609</v>
       </c>
       <c r="G3">
-        <v>0.3797178100942844</v>
+        <v>0.2997334254153756</v>
       </c>
       <c r="H3">
-        <v>0.5355345402302447</v>
+        <v>0.2361285514837164</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3347488705399257</v>
+        <v>0.3925353719309896</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9350643962688565</v>
+        <v>0.7466775024718473</v>
       </c>
       <c r="O3">
-        <v>1.772263363456148</v>
+        <v>1.080246111300397</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6595868745604321</v>
+        <v>1.839616983539599</v>
       </c>
       <c r="C4">
-        <v>0.1356287670299992</v>
+        <v>0.4307724149391845</v>
       </c>
       <c r="D4">
-        <v>0.364675798423832</v>
+        <v>0.3184974153544857</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.942048742712096</v>
+        <v>0.6047233024384084</v>
       </c>
       <c r="G4">
-        <v>0.3782623373390948</v>
+        <v>0.2828766181491957</v>
       </c>
       <c r="H4">
-        <v>0.5374245285424308</v>
+        <v>0.2319726958351325</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3277567447083527</v>
+        <v>0.3608128202701266</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9352330977286698</v>
+        <v>0.7426307603316431</v>
       </c>
       <c r="O4">
-        <v>1.772949590126231</v>
+        <v>1.03556761681709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.636279138145909</v>
+        <v>1.76415556097129</v>
       </c>
       <c r="C5">
-        <v>0.1304399357110242</v>
+        <v>0.4148218781401738</v>
       </c>
       <c r="D5">
-        <v>0.3623284075038384</v>
+        <v>0.3079517081248184</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.940972652058683</v>
+        <v>0.5914026178827569</v>
       </c>
       <c r="G5">
-        <v>0.3777538240050191</v>
+        <v>0.2762054947364234</v>
       </c>
       <c r="H5">
-        <v>0.5382681896068959</v>
+        <v>0.2304060868024749</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3249587956166522</v>
+        <v>0.3480078270325464</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9353979254587728</v>
+        <v>0.7411863418089695</v>
       </c>
       <c r="O5">
-        <v>1.773559857939617</v>
+        <v>1.018044050097799</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.632407877490067</v>
+        <v>1.751624157099883</v>
       </c>
       <c r="C6">
-        <v>0.1295774508314196</v>
+        <v>0.412172004646834</v>
       </c>
       <c r="D6">
-        <v>0.3619411117175702</v>
+        <v>0.3062047193796218</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9408036009450669</v>
+        <v>0.5892093070631148</v>
       </c>
       <c r="G6">
-        <v>0.3776744893776183</v>
+        <v>0.2751093075394451</v>
       </c>
       <c r="H6">
-        <v>0.5384127162741734</v>
+        <v>0.2301534300767543</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3244973014978143</v>
+        <v>0.3458885964070078</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9354311056145121</v>
+        <v>0.7409586454401946</v>
       </c>
       <c r="O6">
-        <v>1.773681147240623</v>
+        <v>1.015174255401419</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6592726082486706</v>
+        <v>1.838599345731183</v>
       </c>
       <c r="C7">
-        <v>0.1355588481029599</v>
+        <v>0.4305573858665355</v>
       </c>
       <c r="D7">
-        <v>0.3646439740755341</v>
+        <v>0.3183549121568916</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9420335843294865</v>
+        <v>0.6045423958967859</v>
       </c>
       <c r="G7">
-        <v>0.3782551370760174</v>
+        <v>0.2827858658060194</v>
       </c>
       <c r="H7">
-        <v>0.5374356089682593</v>
+        <v>0.2319510626278216</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3277188025286222</v>
+        <v>0.3606396488581112</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9352349312853576</v>
+        <v>0.7426104614024496</v>
       </c>
       <c r="O7">
-        <v>1.772956482367832</v>
+        <v>1.035328579802766</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7776604616412897</v>
+        <v>2.222376200580811</v>
       </c>
       <c r="C8">
-        <v>0.1618223817689</v>
+        <v>0.5115177408151226</v>
       </c>
       <c r="D8">
-        <v>0.3769316042418041</v>
+        <v>0.3726145795744458</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.948862238354053</v>
+        <v>0.6750558108072369</v>
       </c>
       <c r="G8">
-        <v>0.3815607280225208</v>
+        <v>0.3184402026599571</v>
       </c>
       <c r="H8">
-        <v>0.5337689354549582</v>
+        <v>0.2410158443008896</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3423859299081613</v>
+        <v>0.4268389546767395</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9352120787045664</v>
+        <v>0.7517164669393566</v>
       </c>
       <c r="O8">
-        <v>1.772662603981075</v>
+        <v>1.130385316806951</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.009151831127951</v>
+        <v>2.976297681130404</v>
       </c>
       <c r="C9">
-        <v>0.2128313067397869</v>
+        <v>0.6698737243024198</v>
       </c>
       <c r="D9">
-        <v>0.4023157481129545</v>
+        <v>0.4817997029763887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9672986458918729</v>
+        <v>0.8251423424288191</v>
       </c>
       <c r="G9">
-        <v>0.3907298397471806</v>
+        <v>0.3957902429281148</v>
       </c>
       <c r="H9">
-        <v>0.528898387985933</v>
+        <v>0.2633271411805111</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3727750064809214</v>
+        <v>0.5615089438301197</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9381809390412741</v>
+        <v>0.7766325412741395</v>
       </c>
       <c r="O9">
-        <v>1.782558814709915</v>
+        <v>1.341962219186229</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.178762144603127</v>
+        <v>3.532555137169197</v>
       </c>
       <c r="C10">
-        <v>0.2499906959071723</v>
+        <v>0.7861996619976992</v>
       </c>
       <c r="D10">
-        <v>0.4217470403735888</v>
+        <v>0.5642001988883578</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9839330980578751</v>
+        <v>0.9441981031637141</v>
       </c>
       <c r="G10">
-        <v>0.3991203841794828</v>
+        <v>0.4582009037029451</v>
       </c>
       <c r="H10">
-        <v>0.5267360843268847</v>
+        <v>0.2829561102283549</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3961016000720292</v>
+        <v>0.6643135282228769</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9421876907292841</v>
+        <v>0.7997808000244646</v>
       </c>
       <c r="O10">
-        <v>1.79625221844293</v>
+        <v>1.515969788942641</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.255809325023847</v>
+        <v>3.786495413226191</v>
       </c>
       <c r="C11">
-        <v>0.26682351804169</v>
+        <v>0.8391724809888217</v>
       </c>
       <c r="D11">
-        <v>0.43075590098303</v>
+        <v>0.602276986203691</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9921744037128093</v>
+        <v>1.000646618135633</v>
       </c>
       <c r="G11">
-        <v>0.4033001243330148</v>
+        <v>0.4880554576914022</v>
       </c>
       <c r="H11">
-        <v>0.526060337093142</v>
+        <v>0.2927012113021732</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4069324212280634</v>
+        <v>0.7121382053465908</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9444045929241156</v>
+        <v>0.8114914104391602</v>
       </c>
       <c r="O11">
-        <v>1.803884808649229</v>
+        <v>1.599927459510894</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.284968006041481</v>
+        <v>3.8828175515049</v>
       </c>
       <c r="C12">
-        <v>0.2731870941619832</v>
+        <v>0.8592448944258138</v>
       </c>
       <c r="D12">
-        <v>0.4341915849327904</v>
+        <v>0.6167912458301714</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9953923053529365</v>
+        <v>1.022385329060498</v>
       </c>
       <c r="G12">
-        <v>0.4049353118698917</v>
+        <v>0.4995934856513742</v>
       </c>
       <c r="H12">
-        <v>0.525848753014543</v>
+        <v>0.2965188313727793</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4110654150026249</v>
+        <v>0.7304198699422813</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9453005567784203</v>
+        <v>0.8161071030247768</v>
       </c>
       <c r="O12">
-        <v>1.806977481448001</v>
+        <v>1.632479067746772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.278688963605987</v>
+        <v>3.862065187034261</v>
       </c>
       <c r="C13">
-        <v>0.2718170643520068</v>
+        <v>0.854921292904919</v>
       </c>
       <c r="D13">
-        <v>0.4334505738721361</v>
+        <v>0.6136609258038561</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9946949518623427</v>
+        <v>1.017686806684338</v>
       </c>
       <c r="G13">
-        <v>0.404580810274183</v>
+        <v>0.4970978407022102</v>
       </c>
       <c r="H13">
-        <v>0.5258923503717909</v>
+        <v>0.2956908061849219</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4101738949028402</v>
+        <v>0.7264746351002742</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9451050867430837</v>
+        <v>0.8151047849387538</v>
       </c>
       <c r="O13">
-        <v>1.80630240922099</v>
+        <v>1.62543361364871</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.258208585885541</v>
+        <v>3.794416487004298</v>
       </c>
       <c r="C14">
-        <v>0.2673472690550227</v>
+        <v>0.8408235659340448</v>
       </c>
       <c r="D14">
-        <v>0.4310380721190938</v>
+        <v>0.6034691096059532</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9924371955878684</v>
+        <v>1.002427600563493</v>
       </c>
       <c r="G14">
-        <v>0.4034336004683325</v>
+        <v>0.4889998999698832</v>
       </c>
       <c r="H14">
-        <v>0.526042041788827</v>
+        <v>0.2930126764833858</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4072718116264156</v>
+        <v>0.7136386957797072</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9444771738616566</v>
+        <v>0.8118674478665184</v>
       </c>
       <c r="O14">
-        <v>1.804135185517339</v>
+        <v>1.602589886168744</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.245661445490498</v>
+        <v>3.753001585777554</v>
       </c>
       <c r="C15">
-        <v>0.2646079913793926</v>
+        <v>0.8321901116046604</v>
       </c>
       <c r="D15">
-        <v>0.4295634954915499</v>
+        <v>0.5972390695494312</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9910669040653062</v>
+        <v>0.9931291957249329</v>
       </c>
       <c r="G15">
-        <v>0.4027377336963553</v>
+        <v>0.4840706782610056</v>
       </c>
       <c r="H15">
-        <v>0.5261395030903628</v>
+        <v>0.291389141834685</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.405498317905483</v>
+        <v>0.7057992454139281</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9440999069821032</v>
+        <v>0.8099084267371808</v>
       </c>
       <c r="O15">
-        <v>1.802834070701635</v>
+        <v>1.588698355762631</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.173724584826175</v>
+        <v>3.515980216876301</v>
       </c>
       <c r="C16">
-        <v>0.2488891638365942</v>
+        <v>0.7827392790164254</v>
       </c>
       <c r="D16">
-        <v>0.4211616878580173</v>
+        <v>0.5617245676714049</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9834080888155796</v>
+        <v>0.9405579515337337</v>
       </c>
       <c r="G16">
-        <v>0.398854549688167</v>
+        <v>0.4562811593176264</v>
       </c>
       <c r="H16">
-        <v>0.5267864443549684</v>
+        <v>0.2823365035424246</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3953981996842941</v>
+        <v>0.661210986035897</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9420507249011507</v>
+        <v>0.7990401933211331</v>
       </c>
       <c r="O16">
-        <v>1.795781699390233</v>
+        <v>1.510585289762957</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.129564432188943</v>
+        <v>3.37082645934953</v>
       </c>
       <c r="C17">
-        <v>0.2392276488082814</v>
+        <v>0.7524202775322522</v>
       </c>
       <c r="D17">
-        <v>0.4160507525305945</v>
+        <v>0.5400963252272106</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9788824404136705</v>
+        <v>0.9089167684375639</v>
       </c>
       <c r="G17">
-        <v>0.3965654414382698</v>
+        <v>0.439623421152163</v>
       </c>
       <c r="H17">
-        <v>0.5272622038701371</v>
+        <v>0.2769988726634551</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3892583375188394</v>
+        <v>0.6341418706538349</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9408944295076367</v>
+        <v>0.7926830759776919</v>
       </c>
       <c r="O17">
-        <v>1.791815147217733</v>
+        <v>1.463942124229817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.104154483252444</v>
+        <v>3.287420146620491</v>
       </c>
       <c r="C18">
-        <v>0.233663926684784</v>
+        <v>0.7349865085227236</v>
       </c>
       <c r="D18">
-        <v>0.4131270375720817</v>
+        <v>0.5277114336998068</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9763428582415941</v>
+        <v>0.8909309350495249</v>
       </c>
       <c r="G18">
-        <v>0.3952829451267803</v>
+        <v>0.4301786686900044</v>
       </c>
       <c r="H18">
-        <v>0.5275648268430757</v>
+        <v>0.2740049507249154</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3857475031531266</v>
+        <v>0.6186708065427382</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9402664765104305</v>
+        <v>0.7891370029946358</v>
       </c>
       <c r="O18">
-        <v>1.789665751297747</v>
+        <v>1.437561707559922</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.095549411104571</v>
+        <v>3.259193413717469</v>
       </c>
       <c r="C19">
-        <v>0.2317790123055374</v>
+        <v>0.7290844407482382</v>
       </c>
       <c r="D19">
-        <v>0.4121398634724187</v>
+        <v>0.5235272871435654</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9754938926277674</v>
+        <v>0.884876895806741</v>
       </c>
       <c r="G19">
-        <v>0.3948545700078654</v>
+        <v>0.4270036006597451</v>
       </c>
       <c r="H19">
-        <v>0.5276722659345268</v>
+        <v>0.2730040430616327</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3845623406577658</v>
+        <v>0.6134489021785612</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9400602440588699</v>
+        <v>0.7879549851309093</v>
       </c>
       <c r="O19">
-        <v>1.788960666777058</v>
+        <v>1.428704607597837</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.134266423386407</v>
+        <v>3.386269587110803</v>
       </c>
       <c r="C20">
-        <v>0.2402568273377312</v>
+        <v>0.7556472448341367</v>
       </c>
       <c r="D20">
-        <v>0.4165931695885376</v>
+        <v>0.5423929142056636</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9793576353886237</v>
+        <v>0.9122627106340104</v>
       </c>
       <c r="G20">
-        <v>0.3968055860368906</v>
+        <v>0.4413823989871446</v>
       </c>
       <c r="H20">
-        <v>0.5272085590417248</v>
+        <v>0.2775591216360596</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3899097986213462</v>
+        <v>0.6370131076901089</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9410136791817933</v>
+        <v>0.7933482986275919</v>
       </c>
       <c r="O20">
-        <v>1.792223721610952</v>
+        <v>1.468860575140525</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.264224655272017</v>
+        <v>3.814281929903188</v>
       </c>
       <c r="C21">
-        <v>0.2686604485670614</v>
+        <v>0.8449640236145513</v>
       </c>
       <c r="D21">
-        <v>0.4317460260929522</v>
+        <v>0.6064600183556195</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9930977169523203</v>
+        <v>1.006899470103917</v>
       </c>
       <c r="G21">
-        <v>0.4037691395226517</v>
+        <v>0.4913719588367229</v>
       </c>
       <c r="H21">
-        <v>0.5259968710661127</v>
+        <v>0.2937957677661984</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.4081233659708232</v>
+        <v>0.7174041064284609</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9446600761794741</v>
+        <v>0.8128133214407427</v>
       </c>
       <c r="O21">
-        <v>1.804766254680203</v>
+        <v>1.609278483645454</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.349057592136603</v>
+        <v>4.094964663670055</v>
       </c>
       <c r="C22">
-        <v>0.2871615992612249</v>
+        <v>0.9034146039305142</v>
       </c>
       <c r="D22">
-        <v>0.4417904219116053</v>
+        <v>0.6488930050814758</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.002643683805218</v>
+        <v>1.070882675048978</v>
       </c>
       <c r="G22">
-        <v>0.4086258216666039</v>
+        <v>0.5254112431036901</v>
       </c>
       <c r="H22">
-        <v>0.5254632312205558</v>
+        <v>0.3051549216714307</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4202111748538613</v>
+        <v>0.7709539776357701</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9473722679208691</v>
+        <v>0.8265965117281127</v>
       </c>
       <c r="O22">
-        <v>1.814143393131133</v>
+        <v>1.705507120822119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.303790570609522</v>
+        <v>3.945060760202637</v>
       </c>
       <c r="C23">
-        <v>0.2772930200308679</v>
+        <v>0.8722096967574942</v>
       </c>
       <c r="D23">
-        <v>0.4364166736793607</v>
+        <v>0.6261907624463561</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9974969815312846</v>
+        <v>1.036526718307442</v>
       </c>
       <c r="G23">
-        <v>0.4060056795967597</v>
+        <v>0.5071108502685746</v>
       </c>
       <c r="H23">
-        <v>0.5257244027945092</v>
+        <v>0.2990204086729733</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4137428166546897</v>
+        <v>0.7422742290502669</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9458946810046029</v>
+        <v>0.8191390474616469</v>
       </c>
       <c r="O23">
-        <v>1.809030492122105</v>
+        <v>1.653716339448351</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.132140720595601</v>
+        <v>3.379287612751284</v>
       </c>
       <c r="C24">
-        <v>0.2397915643156807</v>
+        <v>0.7541883425260778</v>
       </c>
       <c r="D24">
-        <v>0.4163478972560597</v>
+        <v>0.5413544729938735</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9791426057732906</v>
+        <v>0.9107493738288497</v>
       </c>
       <c r="G24">
-        <v>0.3966969121987205</v>
+        <v>0.4405867556138077</v>
       </c>
       <c r="H24">
-        <v>0.5272327212171604</v>
+        <v>0.2773056009875887</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3896152137117355</v>
+        <v>0.6357147383919823</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.94095965170483</v>
+        <v>0.793047213687359</v>
       </c>
       <c r="O24">
-        <v>1.792038597024572</v>
+        <v>1.466635592539859</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9466048778025424</v>
+        <v>2.772047148860338</v>
       </c>
       <c r="C25">
-        <v>0.1990865465273259</v>
+        <v>0.6270552672585836</v>
       </c>
       <c r="D25">
-        <v>0.3953111447165725</v>
+        <v>0.4519162190103998</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9617695726370101</v>
+        <v>0.7831180192610958</v>
       </c>
       <c r="G25">
-        <v>0.3879600455585717</v>
+        <v>0.3739649770719922</v>
       </c>
       <c r="H25">
-        <v>0.5299674567558412</v>
+        <v>0.2567589375666444</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3643789630252314</v>
+        <v>0.5244680873745295</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9370563794358873</v>
+        <v>0.7690828492979307</v>
       </c>
       <c r="O25">
-        <v>1.778756502801286</v>
+        <v>1.281710798705092</v>
       </c>
     </row>
   </sheetData>
